--- a/couriers-project_data.xlsx
+++ b/couriers-project_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gnn\school\2021-2022\12 клас РМДБ\Modul 3 Final projects\za 12A\5. rezerv_couriers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HDD\Couriers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;лв.&quot;;[Red]\-#,##0.00\ &quot;лв.&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;;[Red]\-#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -539,7 +539,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -826,27 +826,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -887,7 +887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -928,7 +928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -969,7 +969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
